--- a/DOWNLOADS/EDITAIS/U_986205_E_900602025_30-09-2025_08h30m/U_986205_E_900602025_30-09-2025_08h30m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_986205_E_900602025_30-09-2025_08h30m/U_986205_E_900602025_30-09-2025_08h30m_master.xlsx
@@ -91,19 +91,19 @@
     <t>Notebook Notebook Tela: Até 14POL, Interatividade Da Tela: Sem Interatividade, Memória Ram: 5 A 8GB, Núcleos Por Processador: Até 4, Armazenamento Hdd: Sem Disco Hdd, Armazenamento Ssd: Superior A 500GB, Bateria: Até 4 Células, Alimentação: Bivolt Automática, Sistema Operacional: Proprietário, Garantia On Site: 36MESES</t>
   </si>
   <si>
-    <t>Aparelho Celular 128gb 4gb ram, com carregador e capinha; Sistema Operacional: Android 14 Samsung One UI 5.1; Lançamento: 2024/3; Dimensões: 167.3 x 77.3 x 8 mm; Peso máximo: 189 gramas; Tela: 6,7 polegadas ou superior; Resolução: 720 x 1600 pixel ou superior; Densidade de pixels da tela: 262 ppi ou superior; Tipo de tela: PLS LCD; Chip: Dual Chip; GSM: Quad Band (850/900/1800/1900); Velocidade máxima de download: 300Mbps; Velocidade máxima de upload: 150Mbps; Ram: 4GB ou superior; Processador: 2x 2.0 GHz Cortex-A75 + 6x 1.8 GHz Cortex-A55; Chipset: Helio G85 MediaTek; GPU: Mali-G52 MC2; Memória interna: 128gb ou superior; Memória expansível: MicroSDXC até 1024GB; Câmera traseira: Dupla SOMp + 2Mp ou superior; Resolução câmera: 8165 x 6124 pixel ou superior; Estabilização Digital: Sim; Autofoco: Sim; Foco no toque: Sim; Flasch LED: Sim;z HDR: Sim; Localização: Sim; Câmera Frontal: 8Mp ou superior; Resolução de gravação de vídeo: Full HD; Auto Focagem de vídeo: Sim; Reconhecimento facial: Sim; Sensor de Impressão Digital: Sim; Wif: 802.11 a/b/g/n/ac; Bluetooth: 5.3 com A2DP/LE; GPS: A-GPS/Glonass/BeiDou/Galileo; Usb: Type-C 2.0; Função vibração: Sim; Função Viva Voz: Sim; Função Wifi-Direct: Sim; Função HotSpot: Sim; Bateria tipo: LiPo; Capacidade da bateria: 5000 mAh ou superior; Voltagem Carregador: Bi-Volt; Carregador: Original fornecido pelo fabricante na mesma embalagem do aparelho celular; Capinha de proteção: transparente ou preta compatível com o aparelho; Garantia de 12 meses; Referência: Samsung A06 128gb 4egb ram, equivalente ou superior.</t>
+    <t>Aparelho Celular 128gb 4gb ram, com carregador e capinha; Sistema Operacional: Android 14 Samsung One UI 5.1; Lançamento: 2024/3; Dimensões: 167.3 x 77.3 x 8 mm; Peso máximo: 189 gramas; Tela: 6,7 polegadas ou superior; Resolução: 720 x 1600 pixel ou superior; Densidade de pixels da tela: 262 ppi ou superior; Tipo de tela: PLS LCD; Chip: Dual Chip; GSM: Quad Band (850/900/1800/1900); Velocidade máxima de download: 300Mbps; Velocidade máxima de upload: 150Mbps; Ram: 4GB ou superior; Processador: 2x 2.0 GHz Cortex-A75 + 6x 1.8 GHz Cortex-A55; Chipset: Helio G85 MediaTek; GPU: Mali-G52 MC2; Memória interna: 128gb ou superior; Memória expansível: MicroSDXC até 1024GB; Câmera traseira: Dupla 50Mp + 2Mp ou superior; Resolução câmera: 8165 x 6124 pixel ou superior; Estabilização Digital: Sim; Autofoco: Sim; Foco no toque: Sim; Flash LED: Sim; HDR: Sim; Localização: Sim; Câmera Frontal: 8Mp ou superior; Resolução de gravação de vídeo: Full HD; Auto Focagem de vídeo: Sim; Reconhecimento facial: Sim; Sensor de Impressão Digital: Sim; Wifi: 802.11 a/b/g/n/ac; Bluetooth: 5.3 com A2DP/LE; GPS: A-GPS/Glonass/ BeiDou/Galileo; Usb: Type-C 2.0; Função vibração: Sim; Função Viva Voz: Sim; Função Wifi-Direct: Sim; Função HotSpot: Sim; Bateria tipo: LiPo; Capacidade da bateria: 5000 mAh ou superior; Voltagem Carregador: Bi-Volt; Carregador: Original fornecido pelo fabricante na mesma embalagem do aparelho celular; Capinha de proteção: transparente ou preta compatível com o aparelho; Garantia de 12 meses; Referência: Samsung A06 128gb 4gb ram, equivalente ou superior.</t>
   </si>
   <si>
     <t>Aparelho Celular com Capinha e Carregador; Capacidade de armazenamento: 512GB; Memória RAM: 8GB; Estrutura: titânio; Cor: titânio preto; Altura máxima 163mm; largura máxima 77,6mm; espessura máxima 8,25mm; peso máximo 227 gramas; Lançamento CPU: 2024 ou posterior; CPU: tipo hexa-core, 2 processadores (2x 4.04ghz P-Code) (4x 2.1Ghz E-Code) ou superior; tela OLED de 6,9 polegadas; resolução de 2868 x 1320 pixels a 460 ppp; Resistência a água e poeira: classificação IP68; Reconhecimento facial: sim; Rede Móvel: 5G; WIFI: tipo 7 (802.11be); Bluetooth: 5.3; NFC: sim; Porta: tipo USB-C (USB3 até 10Gb/s); Cartão SIM: Dual SIM (eSIM e nano SIM); Lançamento: 09/2024 ou posterior; Câmeras traseiras: 3, 48mpx 48mpx 12mpx; Câmera Frontal: 1, 12mpx; Abertura câmeras traseiras: f1.78 f2.2 f2.8; Abertura câmera frontal: f1.9; Bateria: íon de lítio; S.O compatível com: IOS 18 ou superior; Capinha de proteção: Sim; Cor da capa de proteção: em cor única Preta ou Transparente; Carregador: Sim, compatível e original da mesma marca do aparelho; Garantia 12 meses; Referência: Iphone 16 PRO Max 512GB, equivalente ou superior.</t>
   </si>
   <si>
-    <t>Microcomputador da Marca LENOVO modelo ThinkCentre M75q AMD Ryzen 3 PRO 8300GE ou superior, com 8GB 256GB SSD no mínimo e Windows 11 Pró, com teclado, mouse, suporte VESA e Monitor ThinkVision 21.5" T22i-30 FHD (1920x1080) 60Hz ou superior. Com todas as peças da marca Lenovo. Garantia de 12 meses.</t>
+    <t>Microcomputador da Marca LENOVO modelo ThinkCentre M75q AMD Ryzen 3 PRO 8300GE ou superior, com 8GB 256GB SSD no mínimo e Windows 11 Pró, com teclado, mouse, suporte VESA e Monitor ThinkVision 21.5" T22i-30 FHD (1920x1080) 60Hz ou superior. Com todas as peças da marca Lenovo. Garantia de 12 meses. (Conforme item 1.6 do Anexo I - Termo de Referência)</t>
   </si>
   <si>
     <t>Impressora Multifuncional Laser. 1. Tipo de equipamento: Impressora multifuncional monocromática a laser com funções de impressão, cópia, digitalização e envio de fax. 2. Tecnologia de impressão: Impressão a laser monocromática com tecnologia de processamento de imagem de alta resolução; Linguagens de impressão compatíveis: PCL5, PCL6, PostScript 3 ou equivalente. 3. Velocidade de impressão: Mínimo de 40 páginas por minuto (ppm) em formato A4 (modo rascunho). 4. Tempo de impressão da primeira página: Menor ou igual a 6,1 segundos a partir do modo pronto. 5. Resolução de impressão: Mínimo de 1.200 x 1.200 dpi otimizado para impressão em qualidade de imagem nítida e clara. 6. Ciclo de trabalho mensal: Ciclo recomendado para até 4.000 páginas por mês; Ciclo máximo de até 80.000 páginas por mês. 7. Capacidade de entrada de papel: Bandeja de entrada para mínimo de 250 folhas em formato A4; Alimentador multifuncional (bandeja manual) para mínimo de 100 folhas; Capacidade máxima de entrada de até 900 folhas (com bandejas adicionais opcionais). 8. Capacidade de saída de papel: Bandeja de saída para até 150 folhas. 9. Impressão Duplex (frente e verso): Impressão duplex automática nativa (impressão frente e verso sem intervenção manual). 10. Conectividade: USB 2.0 de alta velocidade; Ethernet Gigabit 10/100/1000 para rede cabeada; Conectividade sem fio: Wi-Fi 802.11 b/g/n e Wi-Fi Direct para impressão móvel direta; Suporte para serviços de impressão móvel, como Apple AirPrint, Google Cloud Print, Mopria Print Service, e HP Smart App. 11. Processador e memória: Processador de 1 GHz; Memória RAM mínima de 256 MB. 12. Display de controle: Tela de controle com display LCD de 2 linhas e botões físicos para navegação e operação. 13. Compatibilidade com sistemas operacionais: Compatível com Windows 10, 11, Linux, macOS, além de ter suporte para drivers PCL5, PCL6 e PostScript 3. 14. Impressão móvel e impressão via nuvem: Suporta impressão sem fio com recursos como AirPrint, Mopria, Google Cloud Print, e HP Smart App. 15. Consumo de energia: Consumo de energia em operação de até 550W; Consumo de energia em modo pronto de até 5,5W; Consumo em modo repouso de até 0,5W. 16. Dimensões máximas: Largura: até 38 cm; Profundidade: até 39 cm; Altura: até 30 cm. 17. Peso: Até 10,2 kg. 18. Garantia mínima: Garantia de 12 meses com assistência técnica autorizada e suporte nacional. Referência: Impressora Multifuncional HP Laser PRO 4103FDW Mono, equivalente ou superior.</t>
   </si>
   <si>
-    <t>Impressora Laser Mono. 1. Tipo de equipamento: Impressora monocromática a laser com conectividade sem fio e duplex automático (impressão frente e verso automática). 2. Tecnologia de impressão: Impressão a laser monocromática (laser eletrofotográfico; Linguagens de impressão compatíveis: PCL5, PCL6, PostScript 3 ou equivalente. 3. Velocidade de impressão: Mínimo de 40 páginas por minuto (ppm) em papel A4; Primeira impressão em menos de 6,1 segundos. 4. Resolução de impressão: Mínimo de 1.200 x 1.200 dpi de impressão em qualidade otimizada. 5. Ciclo de trabalho mensal: Capacidade recomendada para até 4.000 páginas por mês; Ciclo máximo de até 80.000 páginas por mês. 6. Capacidade de entrada de papel: Bandeja de entrada com mínimo de 250 folhas; Alimentador multifuncional (bandeja de alimentação manual) para mínimo de 100 folhas; Capacidade total de até 900 folhas (com bandeja adicional opcional). 7. Capacidade de saída de papel: Até 150 folhas na bandeja de saída. 8. Impressão Duplex (frente e verso): Impressão duplex automática nativa, sem necessidade de intervenção manual. 9. Conectividade: Conexão USB 2.0 de alta velocidade; Rede Ethernet Gigabit 10/100/1000; Wi-Fi 802.11 b/g/n e Wi-Fi Direct para impressão sem fio; Suporte a Apple AirPrint, Google Cloud Print, Mopria, HP Smart App e outros serviços de impressão móvel. 10. Processador e memória: Processador de 1 GHz; Memória RAM mínima de 256 MB. 11. Display de controle: Painel de controle com display de 2 linhas para navegação por meio de botões físicos. 12. Compatibilidade com sistemas operacionais: Compatível com Windows 10, 11, Linux, macOS e outros sistemas operacionais com suporte a PCL5, PCL6 e PostScript. 13. Linguagens de impressão suportadas: PCL5, PCL6, PostScript 3, PDF direto v1.7. 14. Impressão móvel e de nuvem: Suporta impressão móvel por meio de aplicativos como Apple AirPrint, Mopria Print Service, HP Smart App, e impressão diretamente de serviços em nuvem. 15. Consumo de energia: Em operação (impressão): até 550W; Em modo pronto: até 5,5W; Em modo repouso: até 0,5W. 16. Dimensões máximas: Largura: até 38 cm; Profundidade: até 36 cm; Altura: até 22 cm. 17. Peso: Até 9 kg. 18. Garantia mínima: Garantia de 12 meses com suporte técnico autorizado e peças de reposição disponíveis no Brasil. Referência: Impressora HP Laser Pro 4003DW Mono, equivalente ou superior.</t>
+    <t>Impressora Laser Mono. 1. Tipo de equipamento: Impressora monocromática a laser com conectividade sem fio e duplex automático (impressão frente e verso automática). 2. Tecnologia de impressão: Impressão a laser monocromática (laser eletrofotográfico); Linguagens de impressão compatíveis: PCL5, PCL6, PostScript 3 ou equivalente. 3. Velocidade de impressão: Mínimo de 40 páginas por minuto (ppm) em papel A4; Primeira impressão em menos de 6,1 segundos. 4. Resolução de impressão: Mínimo de 1.200 x 1.200 dpi de impressão em qualidade otimizada. 5. Ciclo de trabalho mensal: Capacidade recomendada para até 4.000 páginas por mês; Ciclo máximo de até 80.000 páginas por mês. 6. Capacidade de entrada de papel: Bandeja de entrada com mínimo de 250 folhas; Alimentador multifuncional (bandeja de alimentação manual) para mínimo de 100 folhas; Capacidade total de até 900 folhas (com bandeja adicional opcional). 7. Capacidade de saída de papel: Até 150 folhas na bandeja de saída. 8. Impressão Duplex (frente e verso): Impressão duplex automática nativa, sem necessidade de intervenção manual. 9. Conectividade: Conexão USB 2.0 de alta velocidade; Rede Ethernet Gigabit 10/100/1000; Wi-Fi 802.11 b/g/n e Wi-Fi Direct para impressão sem fio; Suporte a Apple AirPrint, Google Cloud Print, Mopria, HP Smart App e outros serviços de impressão móvel. 10. Processador e memória: Processador de 1 GHz; Memória RAM mínima de 256 MB. 11. Display de controle: Painel de controle com display de 2 linhas para navegação por meio de botões físicos. 12. Compatibilidade com sistemas operacionais: Compatível com Windows 10, 11, Linux, macOS e outros sistemas operacionais com suporte a PCL5, PCL6 e PostScript. 13. Linguagens de impressão suportadas: PCL5, PCL6, PostScript 3, PDF direto v1.7. 14. Impressão móvel e de nuvem: Suporta impressão móvel por meio de aplicativos como Apple AirPrint, Mopria Print Service, HP Smart App, e impressão diretamente de serviços em nuvem. 15. Consumo de energia: Em operação (impressão): até 550W; Em modo pronto: até 5,5W; Em modo repouso: até 0,5W. 16. Dimensões máximas: Largura: até 38 cm; Profundidade: até 36 cm; Altura: até 22 cm. 17. Peso: Até 9 kg. 18. Garantia mínima: Garantia de 12 meses com suporte técnico autorizado e peças de reposição disponíveis no Brasil. Referência: Impressora HP Laser Pro 4003DW Mono, equivalente ou superior.</t>
   </si>
   <si>
     <t>Impressora Multifuncional Tanque de Tinta Tipo 1. 1. Tipo de equipamento: Impressora multifuncional jato de tinta (impressão, cópia, digitalização e envio de fax) com sistema EcoTank (tanque de tinta recarregável). 2. Tecnologia de impressão: Tecnologia de impressão a jato de tinta térmico com sistema de tanque de tinta integrado; Tecnologia de impressão: Injeção de tinta Heat-Free PrecisionCore de 4 cores (CMYK). 3. Velocidade de impressão: 14 páginas por minuto (ppm) em preto e branco (modo normal, A4); 7 páginas por minuto (ppm) em cores (modo normal, A4). 4. Resolução de impressão: Resolução máxima de 4800 x 1200 dpi otimizada, proporcionando impressões de alta qualidade. 5. Impressão Duplex (frente e verso): Impressão duplex automática (frente e verso automática sem intervenção manual). 6. Ciclo de trabalho mensal: Ciclo mensal recomendado de até 2.500 páginas. 7. Capacidade de entrada de papel: Bandeja de entrada para 250 folhas (A4); Alimentador multifuncional para até 30 folhas. 8. Capacidade de saída de papel: Bandeja de saída para até 100 folhas (A4). 9. Conectividade: Conectividade sem fio via Wi-Fi 802.11 b/g/n para impressão remota; Wi-Fi Direct para impressão sem roteador; Conexão via USB 2.0 para impressão local; Ethernet 10/100 para rede cabeada; Suporte para impressão móvel através de Apple AirPrint, Google Cloud Print, Mopria Print Service, e Epson iPrint. 10. Digitalização: Digitalização plana com resolução de 1200 x 2400 dpi (óptica); Digitalização com velocidade de até 6 ppm (preto e branco) e 4 ppm (cores). 11. Funções adicionais: Envio de fax via conexão de linha telefônica (suporta envio e recepção de faxes); Armazenamento de documentos digitalizados em formatos PDF, JPEG, TIFF, entre outros. 12. Consumo de energia: Consumo de energia em operação: até 20W; Consumo em modo pronto: até 5W; Consumo em modo desligado: menor que 0,3W. 13. Dimensões máximas: Largura: 46,6 cm; Profundidade: 37,5 cm; Altura: 20,4 cm. 14. Peso: Aproximadamente 6,4 kg. 15. Garantia mínima: Garantia de 12 meses com assistência técnica nacional autorizada e peças de reposição disponíveis no Brasil. Referência: Tanque de Tinta Epson L5590, equivalente ou superior.</t>
@@ -112,7 +112,7 @@
     <t>Impressora Multifuncional Tanque de Tinta Tipo 2. 1. Tipo de equipamento: Impressora multifuncional com funções de impressão, cópia e digitalização. 2. Tecnologia de impressão: Tecnologia de impressão jato de tinta térmico com sistema de tanque de tinta integrado; Tecnologia Heat-Free (sem aquecimento), proporcionando economia de energia e maior durabilidade do equipamento. 3. Velocidade de impressão: Mínimo de 10 páginas por minuto (ppm) para impressão em preto e branco (modo rascunho, A4); Mínimo de 5 páginas por minuto (ppm) para impressão colorida (modo rascunho, A4). 4. Resolução de impressão: Mínimo de 5760 x 1440 dpi (otimizada) para qualidade de impressão excelente. 5. Capacidade de impressão duplex (frente e verso): Impressão frente e verso manual (requer intervenção do usuário). 6. Ciclo de trabalho mensal: Ciclo mensal recomendado de até 1.500 páginas. 7. Conectividade: Conexão Wi-Fi (802.11 b/g/n) para impressão sem fio; Wi-Fi Direct para impressão direta sem a necessidade de roteador; Conexão USB 2.0 para impressão via cabo. 8. Capacidade de entrada de papel: Bandeja de entrada com capacidade para 100 folhas (A4); Alimentador manual para 10 folhas. 9. Capacidade de saída de papel: Bandeja de saída para até 30 folhas (A4). 10. Cartuchos/Tintas: Sistema de tanque de tinta integrado com garrafas de tinta recarregáveis, permitindo baixo custo por página; Tintas de alta capacidade com rendimento aproximado de 7.500 páginas em preto e 6.000 páginas em cores por conjunto de garrafas de tinta. 11. Digitalização: Resolução óptica de 600 x 1.200 dpi para digitalização em alta qualidade; Digitalização plana através de mesa (scan de documentos em vidro). 12. Tela de controle: Botões físicos com LED indicadores para fácil navegação, sem a necessidade de tela sensível ao toque. 13. Compatibilidade com sistemas operacionais: Compatível com Windows 7, 8, 10, 11 e macOS X 10.6.8 ou superior; Suporte para aplicativos de impressão móvel como Epson iPrint, Apple AirPrint, Google Cloud Print, Mopria e outros serviços de impressão via nuvem. 14. Consumo de energia: Modo impressão: até 12W; Modo pronto: até 2W; Modo desligado: menor que 0,3W. 15. Dimensões máximas: Largura: 37,5 cm; Profundidade: 18,1 cm; Altura: 13,4 cm. 16. Peso: Aproximadamente 4,2 kg. 17. Garantia mínima: Garantia de 12 meses com assistência técnica nacional autorizada. Referência: Tanque de Tinta Epson L3250, equivalente ou superior.</t>
   </si>
   <si>
-    <t>Notebook com as seguintes configurações mínimas: Processador Intel Core i5 10º geração ou AMD Ryzen 5; Memória RAM de 8GB DDR4; SSD com capacidade mínima de 480GB; Saídas de vídeo HDMI; Conexões USB (mínimo 3 portas USB); Porta de rede RJ-45 (1000 Mbps); Entrada de áudio e microfone; Sistema Operacional Windows 11 Pro ou equivalente; Garantia de 12 meses.</t>
+    <t>Notebook com as seguintes configurações mínimas: Processador Intel Core i5 10ª geração ou AMD Ryzen 5; Memória RAM de 8GB DDR4; SSD com capacidade mínima de 480GB; Saídas de vídeo HDMI; Conexões USB (mínimo 3 portas USB); Porta de rede RJ-45 (1000 Mbps); Entrada de áudio e microfone; Sistema Operacional Windows 11 Pro ou equivalente; Garantia de 12 meses.</t>
   </si>
   <si>
     <t>Unidade</t>
